--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentlnuse-my.sharepoint.com/personal/ps222vt_student_lnu_se/Documents/Studies/Research/Sigma/Replication Package/Smart-Troubleshooting-Survey-Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrivePs222vt\OneDrive - student.lnu.se\Studies\Research\Sigma\Replication Package\Smart-Troubleshooting-Survey-Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{ED6EF3B2-E9DA-4F05-9981-81C3C7D261BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{117CC971-2087-4826-A5F1-0A053602891B}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{ED6EF3B2-E9DA-4F05-9981-81C3C7D261BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BE337301-CD3F-4B7D-A2F5-54F6945530E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44F35A27-466F-4C03-ABB2-2E385CDA6431}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Internet of Things</t>
   </si>
@@ -194,6 +193,9 @@
   </si>
   <si>
     <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Replicated Systems</t>
   </si>
 </sst>
 </file>
@@ -562,7 +564,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +679,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,7 +687,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +703,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -717,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,13 +727,16 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -799,8 +804,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C4">
-    <sortCondition ref="C2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B19">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrivePs222vt\OneDrive - student.lnu.se\Studies\Research\Sigma\Replication Package\Smart-Troubleshooting-Survey-Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{ED6EF3B2-E9DA-4F05-9981-81C3C7D261BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{BE337301-CD3F-4B7D-A2F5-54F6945530E7}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{ED6EF3B2-E9DA-4F05-9981-81C3C7D261BF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{38A3060E-295C-447A-8E58-B4FBAD431064}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44F35A27-466F-4C03-ABB2-2E385CDA6431}"/>
+    <workbookView xWindow="12180" yWindow="5655" windowWidth="21600" windowHeight="15255" xr2:uid="{44F35A27-466F-4C03-ABB2-2E385CDA6431}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,171 +31,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Internet of Things</t>
   </si>
   <si>
-    <t>Anomaly Detection</t>
-  </si>
-  <si>
-    <t>Smart Maintenance</t>
-  </si>
-  <si>
-    <t>Fault Pattern Recognition</t>
-  </si>
-  <si>
-    <t>Intrusion Detection</t>
-  </si>
-  <si>
-    <t>Self Protection</t>
-  </si>
-  <si>
-    <t>Predictive Safety</t>
-  </si>
-  <si>
-    <t>Failure Prediction</t>
-  </si>
-  <si>
-    <t>Safety Monitoring</t>
-  </si>
-  <si>
     <t>Dependable Systems</t>
   </si>
   <si>
-    <t>Proactive Fault Management</t>
-  </si>
-  <si>
-    <t>Resilient Systems</t>
-  </si>
-  <si>
-    <t>Autonomous Systems</t>
-  </si>
-  <si>
-    <t>Safety Critical Systems</t>
-  </si>
-  <si>
-    <t>Smat Homes</t>
-  </si>
-  <si>
-    <t>Mass Rapid Transit (MRT) System</t>
-  </si>
-  <si>
-    <t>Complex Aerospace Systems</t>
-  </si>
-  <si>
-    <t>Self Healing</t>
-  </si>
-  <si>
-    <t>Problem Determination</t>
-  </si>
-  <si>
-    <t>Large Dynamic Internet Services</t>
-  </si>
-  <si>
-    <t>Event Logs</t>
-  </si>
-  <si>
-    <t>Fault Tolerance</t>
-  </si>
-  <si>
-    <t>WuKong</t>
-  </si>
-  <si>
-    <t>6LoWPAN</t>
-  </si>
-  <si>
     <t>Wireless Sensor Networks</t>
   </si>
   <si>
-    <t>Adaptive Systems</t>
-  </si>
-  <si>
-    <t>Fault Injection</t>
-  </si>
-  <si>
-    <t>SCADA Systems</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Fault Removal</t>
-  </si>
-  <si>
-    <t>Intrusion Removal</t>
-  </si>
-  <si>
-    <t>Honeypots</t>
-  </si>
-  <si>
-    <t>Virtual Patching</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
-    <t>Security Framework</t>
-  </si>
-  <si>
-    <t>Security Model</t>
-  </si>
-  <si>
-    <t>Process Mining</t>
-  </si>
-  <si>
-    <t>Petri Net</t>
-  </si>
-  <si>
-    <t>Workflow Patterns</t>
-  </si>
-  <si>
-    <t>Business Process</t>
-  </si>
-  <si>
-    <t>Error Detection</t>
-  </si>
-  <si>
-    <t>Error Recovery</t>
-  </si>
-  <si>
-    <t>Reactive Fault Tolerance</t>
-  </si>
-  <si>
-    <t>Proactive Fault Tolerance</t>
-  </si>
-  <si>
-    <t>Distributed Systems</t>
-  </si>
-  <si>
-    <t>Task Stratification</t>
-  </si>
-  <si>
     <t>VANET</t>
   </si>
   <si>
-    <t>Self Adaptive Systems</t>
-  </si>
-  <si>
-    <t>Incremental Learning</t>
-  </si>
-  <si>
-    <t>Digital Twin</t>
-  </si>
-  <si>
-    <t>Automation Systems</t>
-  </si>
-  <si>
     <t>Methodology</t>
   </si>
   <si>
     <t>Domain</t>
   </si>
   <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Replicated Systems</t>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Resliien*</t>
+  </si>
+  <si>
+    <t>Automat* * Recovery</t>
+  </si>
+  <si>
+    <t>Fault*Tolerance</t>
+  </si>
+  <si>
+    <t>Error*Tolerance</t>
+  </si>
+  <si>
+    <t>Proactive Fa* Management</t>
+  </si>
+  <si>
+    <t>Self*Heal*</t>
+  </si>
+  <si>
+    <t>Smart*Maintena*</t>
+  </si>
+  <si>
+    <t>Slef*Repai*</t>
+  </si>
+  <si>
+    <t>Cyber Physical Systems</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>Autonomous</t>
+  </si>
+  <si>
+    <t>Embedded Systems</t>
+  </si>
+  <si>
+    <t>Real*Time Systems</t>
+  </si>
+  <si>
+    <t>Reactive Systems</t>
+  </si>
+  <si>
+    <t>Connected Devices</t>
+  </si>
+  <si>
+    <t>Intelligent *</t>
+  </si>
+  <si>
+    <t>Smart *</t>
+  </si>
+  <si>
+    <t>Critical Systems</t>
+  </si>
+  <si>
+    <t>SCADA</t>
+  </si>
+  <si>
+    <t>WSN</t>
+  </si>
+  <si>
+    <t>Industr* Critical Systems</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>Critical * Infrastructures</t>
+  </si>
+  <si>
+    <t>System*Of*Systems</t>
+  </si>
+  <si>
+    <t>Excluding</t>
+  </si>
+  <si>
+    <t>Smart*Grid AND Resilien*</t>
   </si>
 </sst>
 </file>
@@ -561,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A007743-33EA-4BD0-98B2-1513CDEE3467}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,236 +513,153 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B19">
-    <sortCondition ref="B2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B21">
+    <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
